--- a/editedresults.xlsx
+++ b/editedresults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A3354B71-5091-4D93-B1DD-0278E9059F02}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52FEF7-39D3-4CA5-BC9E-D48912BE562E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="editedresults" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -8618,6 +8618,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>editedresults!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -8644,10 +8655,10 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>editedresults!$AF$2:$AF$12</c:f>
+              <c:f>editedresults!$AF$2:$AF$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.591333329999999</c:v>
                 </c:pt>
@@ -8677,9 +8688,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.0720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.5473333330000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11880,11 +11888,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="AG29" sqref="AG29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/editedresults.xlsx
+++ b/editedresults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studie\research methods\nbodysim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD52FEF7-39D3-4CA5-BC9E-D48912BE562E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0FAEC-F9FD-4481-B2F6-C54598EACA33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,6 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,8 +608,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -730,7 +734,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -821,7 +825,7 @@
             <c:numRef>
               <c:f>editedresults!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.64</c:v>
@@ -944,7 +948,7 @@
             <c:numRef>
               <c:f>editedresults!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.65</c:v>
@@ -1067,7 +1071,7 @@
             <c:numRef>
               <c:f>editedresults!$D$2:$D$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.63</c:v>
@@ -1190,7 +1194,7 @@
             <c:numRef>
               <c:f>editedresults!$E$2:$E$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.66</c:v>
@@ -1313,7 +1317,7 @@
             <c:numRef>
               <c:f>editedresults!$F$2:$F$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.45</c:v>
@@ -1436,7 +1440,7 @@
             <c:numRef>
               <c:f>editedresults!$G$2:$G$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.42</c:v>
@@ -1565,7 +1569,7 @@
             <c:numRef>
               <c:f>editedresults!$H$2:$H$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.43</c:v>
@@ -1694,7 +1698,7 @@
             <c:numRef>
               <c:f>editedresults!$I$2:$I$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.55</c:v>
@@ -1823,7 +1827,7 @@
             <c:numRef>
               <c:f>editedresults!$J$2:$J$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.5</c:v>
@@ -1952,7 +1956,7 @@
             <c:numRef>
               <c:f>editedresults!$K$2:$K$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.47</c:v>
@@ -2081,7 +2085,7 @@
             <c:numRef>
               <c:f>editedresults!$L$2:$L$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.67</c:v>
@@ -2210,7 +2214,7 @@
             <c:numRef>
               <c:f>editedresults!$M$2:$M$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.65</c:v>
@@ -2342,7 +2346,7 @@
             <c:numRef>
               <c:f>editedresults!$N$2:$N$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.64</c:v>
@@ -2474,7 +2478,7 @@
             <c:numRef>
               <c:f>editedresults!$O$2:$O$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.61</c:v>
@@ -2606,7 +2610,7 @@
             <c:numRef>
               <c:f>editedresults!$P$2:$P$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.61</c:v>
@@ -2738,7 +2742,7 @@
             <c:numRef>
               <c:f>editedresults!$Q$2:$Q$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.64</c:v>
@@ -2870,7 +2874,7 @@
             <c:numRef>
               <c:f>editedresults!$R$2:$R$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.49</c:v>
@@ -3002,7 +3006,7 @@
             <c:numRef>
               <c:f>editedresults!$S$2:$S$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.66</c:v>
@@ -3131,7 +3135,7 @@
             <c:numRef>
               <c:f>editedresults!$T$2:$T$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.51</c:v>
@@ -3260,7 +3264,7 @@
             <c:numRef>
               <c:f>editedresults!$U$2:$U$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.68</c:v>
@@ -3389,7 +3393,7 @@
             <c:numRef>
               <c:f>editedresults!$V$2:$V$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.47</c:v>
@@ -3518,7 +3522,7 @@
             <c:numRef>
               <c:f>editedresults!$W$2:$W$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.74</c:v>
@@ -3647,7 +3651,7 @@
             <c:numRef>
               <c:f>editedresults!$X$2:$X$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.57</c:v>
@@ -3776,7 +3780,7 @@
             <c:numRef>
               <c:f>editedresults!$Y$2:$Y$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.48</c:v>
@@ -3908,7 +3912,7 @@
             <c:numRef>
               <c:f>editedresults!$Z$2:$Z$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.66</c:v>
@@ -4040,7 +4044,7 @@
             <c:numRef>
               <c:f>editedresults!$AA$2:$AA$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.54</c:v>
@@ -4172,7 +4176,7 @@
             <c:numRef>
               <c:f>editedresults!$AB$2:$AB$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.57</c:v>
@@ -4304,7 +4308,7 @@
             <c:numRef>
               <c:f>editedresults!$AC$2:$AC$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.71</c:v>
@@ -4436,7 +4440,7 @@
             <c:numRef>
               <c:f>editedresults!$AD$2:$AD$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.61</c:v>
@@ -4568,7 +4572,7 @@
             <c:numRef>
               <c:f>editedresults!$AE$2:$AE$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.83</c:v>
@@ -4676,7 +4680,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672630784"/>
@@ -4704,7 +4708,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4738,7 +4742,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672630456"/>
@@ -4780,7 +4784,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4817,7 +4821,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4893,7 +4897,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4934,7 +4938,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -4973,7 +4977,7 @@
             <c:numRef>
               <c:f>editedresults!$C$12:$C$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.49</c:v>
@@ -5046,7 +5050,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5085,7 +5089,7 @@
             <c:numRef>
               <c:f>editedresults!$D$12:$D$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.59</c:v>
@@ -5158,7 +5162,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5197,7 +5201,7 @@
             <c:numRef>
               <c:f>editedresults!$E$12:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.54</c:v>
@@ -5270,7 +5274,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5309,7 +5313,7 @@
             <c:numRef>
               <c:f>editedresults!$F$12:$F$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.51</c:v>
@@ -5382,7 +5386,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5421,7 +5425,7 @@
             <c:numRef>
               <c:f>editedresults!$G$12:$G$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.51</c:v>
@@ -5494,7 +5498,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5533,7 +5537,7 @@
             <c:numRef>
               <c:f>editedresults!$H$12:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.54</c:v>
@@ -5612,7 +5616,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5651,7 +5655,7 @@
             <c:numRef>
               <c:f>editedresults!$I$12:$I$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.62</c:v>
@@ -5730,7 +5734,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5769,7 +5773,7 @@
             <c:numRef>
               <c:f>editedresults!$J$12:$J$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.45</c:v>
@@ -5848,7 +5852,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -5887,7 +5891,7 @@
             <c:numRef>
               <c:f>editedresults!$K$12:$K$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.5</c:v>
@@ -5966,7 +5970,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6005,7 +6009,7 @@
             <c:numRef>
               <c:f>editedresults!$L$12:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.69</c:v>
@@ -6084,7 +6088,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6123,7 +6127,7 @@
             <c:numRef>
               <c:f>editedresults!$M$12:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.61</c:v>
@@ -6202,7 +6206,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6241,7 +6245,7 @@
             <c:numRef>
               <c:f>editedresults!$N$12:$N$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.43</c:v>
@@ -6323,7 +6327,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6362,7 +6366,7 @@
             <c:numRef>
               <c:f>editedresults!$O$12:$O$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.62</c:v>
@@ -6444,7 +6448,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6483,7 +6487,7 @@
             <c:numRef>
               <c:f>editedresults!$P$12:$P$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.56</c:v>
@@ -6565,7 +6569,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6604,7 +6608,7 @@
             <c:numRef>
               <c:f>editedresults!$Q$12:$Q$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.66</c:v>
@@ -6686,7 +6690,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6725,7 +6729,7 @@
             <c:numRef>
               <c:f>editedresults!$R$12:$R$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.42</c:v>
@@ -6807,7 +6811,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6846,7 +6850,7 @@
             <c:numRef>
               <c:f>editedresults!$S$12:$S$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.52</c:v>
@@ -6928,7 +6932,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -6967,7 +6971,7 @@
             <c:numRef>
               <c:f>editedresults!$T$12:$T$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.44</c:v>
@@ -7046,7 +7050,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7085,7 +7089,7 @@
             <c:numRef>
               <c:f>editedresults!$U$12:$U$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.57</c:v>
@@ -7164,7 +7168,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7203,7 +7207,7 @@
             <c:numRef>
               <c:f>editedresults!$V$12:$V$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.53</c:v>
@@ -7282,7 +7286,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7321,7 +7325,7 @@
             <c:numRef>
               <c:f>editedresults!$W$12:$W$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.58</c:v>
@@ -7400,7 +7404,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7439,7 +7443,7 @@
             <c:numRef>
               <c:f>editedresults!$X$12:$X$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.42</c:v>
@@ -7518,7 +7522,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7557,7 +7561,7 @@
             <c:numRef>
               <c:f>editedresults!$Y$12:$Y$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.56</c:v>
@@ -7636,7 +7640,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7675,7 +7679,7 @@
             <c:numRef>
               <c:f>editedresults!$Z$12:$Z$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.63</c:v>
@@ -7757,7 +7761,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7796,7 +7800,7 @@
             <c:numRef>
               <c:f>editedresults!$AA$12:$AA$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.55</c:v>
@@ -7878,7 +7882,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -7917,7 +7921,7 @@
             <c:numRef>
               <c:f>editedresults!$AB$12:$AB$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.61</c:v>
@@ -7999,7 +8003,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -8038,7 +8042,7 @@
             <c:numRef>
               <c:f>editedresults!$AC$12:$AC$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.6</c:v>
@@ -8120,7 +8124,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -8159,7 +8163,7 @@
             <c:numRef>
               <c:f>editedresults!$AD$12:$AD$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.42</c:v>
@@ -8241,7 +8245,7 @@
             <c:numRef>
               <c:f>editedresults!$B$12:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.64</c:v>
@@ -8280,7 +8284,7 @@
             <c:numRef>
               <c:f>editedresults!$AE$12:$AE$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.61</c:v>
@@ -8354,7 +8358,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8388,7 +8392,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672638656"/>
@@ -8416,7 +8420,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8450,7 +8454,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="672636032"/>
@@ -8492,7 +8496,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8529,7 +8533,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8575,8 +8579,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>AVG angles</a:t>
+              <a:t>average  nozzle</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> width</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -8605,7 +8614,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8653,11 +8662,100 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.9094488188976377E-4"/>
+                  <c:y val="3.6271507728200557E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>editedresults!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>editedresults!$AF$2:$AF$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10.591333329999999</c:v>
@@ -8714,6 +8812,8 @@
         <c:axId val="768655344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="140"/>
+          <c:min val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8731,67 +8831,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="768667808"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="768667808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>nozzle width (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8826,12 +8925,137 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768667808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768667808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fill</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (100 ticks)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="768655344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8874,7 +9098,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8920,7 +9144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>AVG spray ticks</a:t>
+              <a:t>average sprayer force particles per tick</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8950,7 +9174,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8987,11 +9211,100 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3057086614173229E-2"/>
+                  <c:y val="0.46282042869641288"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>editedresults!$A$12:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>editedresults!$AF$12:$AF$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7.5473333330000001</c:v>
@@ -9065,67 +9378,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="771815192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="771815192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>total spray time (ticks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9160,7 +9467,127 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-NL"/>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="771815192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="771815192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>fill time (100 ticks)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="771806992"/>
@@ -9208,7 +9635,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11556,15 +11983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11891,8 +12318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12005,106 +12432,106 @@
       <c r="A2">
         <v>40</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>10.64</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10.65</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>10.63</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>10.66</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>10.45</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>10.42</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>10.43</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>10.55</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>10.5</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>10.47</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>10.67</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>10.65</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>10.64</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="1">
         <v>10.61</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="1">
         <v>10.61</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="1">
         <v>10.64</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>10.49</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="1">
         <v>10.66</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="1">
         <v>10.51</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="1">
         <v>10.68</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="1">
         <v>10.47</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="1">
         <v>10.74</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>10.57</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="1">
         <v>10.48</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="1">
         <v>10.66</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="1">
         <v>10.54</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="1">
         <v>10.57</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="1">
         <v>10.71</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="1">
         <v>10.61</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="1">
         <v>10.83</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="1">
         <v>10.591333329999999</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="1">
         <v>9.7561377000000005E-2</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="1">
         <v>10.83</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="1">
         <v>10.64</v>
       </c>
     </row>
@@ -12112,106 +12539,106 @@
       <c r="A3">
         <v>50</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>9.66</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>9.7199989999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>9.6399989999999995</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>9.73</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>9.59</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>9.59</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>9.76</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>9.83</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>9.61</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>9.6199999999999992</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>9.75</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>9.74</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>9.66</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>9.74</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>9.66</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>9.5500000000000007</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>9.7799999999999994</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>9.61</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="1">
         <v>9.66</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>9.82</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="1">
         <v>9.75</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>9.6300000000000008</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>9.52</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>9.7100000000000009</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>9.5999990000000004</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>9.82</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>9.75</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>9.59</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>9.69</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>9.6829999000000004</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>8.1246575000000001E-2</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>9.69</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>9.66</v>
       </c>
     </row>
@@ -12219,106 +12646,106 @@
       <c r="A4">
         <v>60</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>9.51</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>9.44</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>9.4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>9.3899989999999995</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>9.3899989999999995</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>9.27</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>9.49</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>9.5299999999999994</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>9.3800000000000008</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>9.34</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>9.5299999999999994</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>9.4</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>9.3699999999999992</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>9.42</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>9.4600000000000009</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>9.3099989999999995</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>9.5299999999999994</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>9.33</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="1">
         <v>9.44</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>9.4499999999999993</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="1">
         <v>9.44</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>9.3699999999999992</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>9.36</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>9.48</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>9.36</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>9.3899989999999995</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>9.42</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>9.36</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>9.4699989999999996</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>9.4159998330000008</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>6.5706483999999996E-2</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>9.51</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>9.4699989999999996</v>
       </c>
     </row>
@@ -12326,106 +12753,106 @@
       <c r="A5">
         <v>70</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>8.61</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>8.75</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>8.66</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>8.5999990000000004</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>8.5299999999999994</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>8.6399989999999995</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>8.75</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>8.58</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>8.4700000000000006</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>8.69</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>8.65</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>8.52</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>8.61</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>8.65</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>8.58</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>8.5</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>8.73</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>8.4700000000000006</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="1">
         <v>8.5999990000000004</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="1">
         <v>8.67</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>8.61</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>8.6799990000000005</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>8.59</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>8.58</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>8.58</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>8.61</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>8.6156665330000006</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>7.1306043E-2</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>8.6199999999999992</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>8.61</v>
       </c>
     </row>
@@ -12433,106 +12860,106 @@
       <c r="A6">
         <v>80</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>8.07</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8.16</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>8.19</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>8.09</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>8.07</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>8.15</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>8.19</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>8.1399989999999995</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>8.08</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>8.1799990000000005</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>8.08</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="1">
         <v>8.11</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="1">
         <v>8.19</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="1">
         <v>8.0599989999999995</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="1">
         <v>8.16</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="1">
         <v>8.0299999999999994</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="1">
         <v>8.11</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="1">
         <v>8.19</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="1">
         <v>8.07</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="1">
         <v>8.08</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="1">
         <v>8.1799990000000005</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="1">
         <v>8.0999990000000004</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="1">
         <v>8.2200000000000006</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="1">
         <v>8.0399999999999991</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="1">
         <v>8.17</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="1">
         <v>8.1386664999999994</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="1">
         <v>5.9482976E-2</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="1">
         <v>8.2100000000000009</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="1">
         <v>8.17</v>
       </c>
     </row>
@@ -12540,106 +12967,106 @@
       <c r="A7">
         <v>90</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>7.59</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>7.47</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>7.56</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>7.51</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>7.48</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>7.48</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>7.5</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>7.57</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>7.43</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>7.47</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>7.64</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>7.58</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>7.41</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>7.56</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>7.52</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>7.62</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>7.4</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>7.5</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>7.42</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="1">
         <v>7.55</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>7.51</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="1">
         <v>7.55</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>7.4</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>7.52</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>7.6</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>7.52</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>7.56</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>7.56</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>7.4</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>7.57</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>7.5149999999999997</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <v>6.6920351000000003E-2</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>7.59</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="1">
         <v>7.57</v>
       </c>
     </row>
@@ -12647,106 +13074,106 @@
       <c r="A8">
         <v>100</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>7.4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7.28</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>7.31</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>7.32</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>7.25</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>7.31</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>7.28</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>7.33</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>7.27</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>7.31</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>7.45</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>7.28</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>7.22</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>7.31</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>7.31</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>7.41</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>7.24</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>7.35</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>7.17</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="1">
         <v>7.33</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>7.37</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="1">
         <v>7.38</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>7.25</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>7.32</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>7.36</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>7.26</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="1">
         <v>7.34</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
         <v>7.31</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>7.22</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="1">
         <v>7.38</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="1">
         <v>7.3106666669999996</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <v>6.104279E-2</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="1">
         <v>7.4</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="1">
         <v>7.38</v>
       </c>
     </row>
@@ -12754,106 +13181,106 @@
       <c r="A9">
         <v>110</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>6.8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>6.74</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>6.76</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>6.78</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>6.72</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>6.76</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>6.78</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>6.8</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1">
         <v>6.71</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>6.65</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>6.78</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>6.73</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>6.68</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>6.73</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>6.76</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>6.76</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>6.64</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>6.73</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>6.64</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="1">
         <v>6.75</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>6.75</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="1">
         <v>6.8</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>6.69</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>6.72</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>6.81</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>6.69</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <v>6.74</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>6.73</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>6.68</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="1">
         <v>6.83</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="1">
         <v>6.7380000000000004</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <v>4.9220592000000001E-2</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="1">
         <v>6.83</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="1">
         <v>6.8</v>
       </c>
     </row>
@@ -12861,106 +13288,106 @@
       <c r="A10">
         <v>120</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>6.55</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>6.53</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>6.5</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>6.5</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>6.45</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>6.48</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>6.49</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>6.57</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>6.46</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>6.5</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>6.57</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>6.51</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>6.47</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>6.56</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>6.53</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>6.54</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>6.46</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>6.51</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>6.42</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="1">
         <v>6.48</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>6.53</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="1">
         <v>6.6</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>6.45</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>6.5</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>6.54</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>6.51</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="1">
         <v>6.53</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>6.55</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>6.48</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>6.58</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="1">
         <v>6.5116666670000001</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <v>4.2667969E-2</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="1">
         <v>6.58</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="1">
         <v>6.55</v>
       </c>
     </row>
@@ -12968,106 +13395,106 @@
       <c r="A11">
         <v>130</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>6.12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>6.07</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>6.05</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>6.11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>6.02</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>6.03</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>6.04</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>6.15</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>6.03</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>6.01</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>6.11</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>6.07</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>6.01</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>6.06</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>6.11</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>6.1</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>5.97</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>6.09</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>5.98</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="1">
         <v>6.1</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>6.13</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="1">
         <v>6.14</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>6.04</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>6.09</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>6.13</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>6.05</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="1">
         <v>6.08</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
         <v>6.11</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>6.05</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="1">
         <v>6.11</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="1">
         <v>6.0720000000000001</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <v>4.6790312000000001E-2</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="1">
         <v>6.12</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="1">
         <v>6.11</v>
       </c>
     </row>
@@ -13075,106 +13502,106 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>7.64</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>7.49</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>7.59</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>7.54</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>7.51</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>7.51</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>7.54</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>7.62</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>7.45</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>7.5</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>7.69</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>7.61</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>7.43</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="1">
         <v>7.62</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="1">
         <v>7.56</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="1">
         <v>7.66</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="1">
         <v>7.42</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="1">
         <v>7.52</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="1">
         <v>7.44</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="1">
         <v>7.57</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="1">
         <v>7.53</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="1">
         <v>7.58</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="1">
         <v>7.42</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="1">
         <v>7.56</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="1">
         <v>7.63</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="1">
         <v>7.55</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="1">
         <v>7.61</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="1">
         <v>7.6</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="1">
         <v>7.42</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="1">
         <v>7.61</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="1">
         <v>7.5473333330000001</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="1">
         <v>7.5318582999999995E-2</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="1">
         <v>7.64</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="1">
         <v>7.61</v>
       </c>
     </row>
@@ -13182,106 +13609,106 @@
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>7.58</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>7.45</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>7.54</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>7.49</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>7.46</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>7.46</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>7.49</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>7.56</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>7.41</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>7.45</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>7.63</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>7.56</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>7.39</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>7.55</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>7.51</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>7.6</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>7.38</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>7.48</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>7.4</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="1">
         <v>7.52</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>7.49</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="1">
         <v>7.53</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>7.38</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>7.51</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>7.58</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>7.5</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="1">
         <v>7.55</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
         <v>7.54</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>7.38</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="1">
         <v>7.56</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="1">
         <v>7.4976666669999998</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <v>6.8880733999999999E-2</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="1">
         <v>7.58</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="1">
         <v>7.56</v>
       </c>
     </row>
@@ -13289,106 +13716,106 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>7.58</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>7.45</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>7.54</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>7.49</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>7.46</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>7.47</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>7.49</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>7.56</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>7.42</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>7.45</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>7.62</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>7.56</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>7.4</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="1">
         <v>7.55</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="1">
         <v>7.51</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="1">
         <v>7.6</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="1">
         <v>7.38</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="1">
         <v>7.48</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="1">
         <v>7.4</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="1">
         <v>7.53</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="1">
         <v>7.5</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="1">
         <v>7.53</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="1">
         <v>7.38</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="1">
         <v>7.51</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="1">
         <v>7.58</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="1">
         <v>7.5</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="1">
         <v>7.55</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="1">
         <v>7.54</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="1">
         <v>7.38</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="1">
         <v>7.56</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="1">
         <v>7.4989999999999997</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="1">
         <v>6.7297844999999995E-2</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="1">
         <v>7.58</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="1">
         <v>7.56</v>
       </c>
     </row>
@@ -13396,106 +13823,106 @@
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>7.59</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>7.46</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>7.55</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>7.5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>7.47</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>7.47</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>7.49</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>7.56</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>7.42</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>7.46</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>7.63</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>7.57</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>7.4</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>7.56</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="1">
         <v>7.52</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="1">
         <v>7.61</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="1">
         <v>7.39</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="1">
         <v>7.49</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="1">
         <v>7.41</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="1">
         <v>7.54</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="1">
         <v>7.5</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="1">
         <v>7.54</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="1">
         <v>7.39</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="1">
         <v>7.52</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="1">
         <v>7.59</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="1">
         <v>7.51</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="1">
         <v>7.56</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="1">
         <v>7.55</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="1">
         <v>7.39</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="1">
         <v>7.56</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="1">
         <v>7.5066666670000002</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="1">
         <v>6.7888798E-2</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="1">
         <v>7.59</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="1">
         <v>7.56</v>
       </c>
     </row>
@@ -13503,106 +13930,106 @@
       <c r="A16">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>7.59</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>7.47</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>7.56</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>7.51</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>7.48</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>7.48</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>7.5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>7.57</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>7.43</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>7.47</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>7.64</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>7.58</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>7.41</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>7.56</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>7.52</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>7.62</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>7.4</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>7.5</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>7.42</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="1">
         <v>7.55</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>7.51</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="1">
         <v>7.55</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>7.4</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>7.52</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>7.6</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>7.52</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="1">
         <v>7.56</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>7.56</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>7.4</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>7.57</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="1">
         <v>7.5149999999999997</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <v>6.6920351000000003E-2</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="1">
         <v>7.59</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="1">
         <v>7.57</v>
       </c>
     </row>
@@ -13610,106 +14037,106 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>7.61</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>7.48</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>7.57</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>7.52</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>7.49</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>7.49</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>7.51</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>7.58</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>7.44</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>7.48</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>7.65</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>7.59</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="1">
         <v>7.42</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>7.58</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>7.54</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>7.63</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="1">
         <v>7.41</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="1">
         <v>7.51</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="1">
         <v>7.43</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="1">
         <v>7.56</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="1">
         <v>7.52</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="1">
         <v>7.56</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="1">
         <v>7.41</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="1">
         <v>7.54</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="1">
         <v>7.61</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="1">
         <v>7.53</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="1">
         <v>7.58</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="1">
         <v>7.57</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="1">
         <v>7.41</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="1">
         <v>7.58</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="1">
         <v>7.5266666669999998</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="1">
         <v>6.7888798E-2</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="1">
         <v>7.61</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="1">
         <v>7.58</v>
       </c>
     </row>
@@ -13717,106 +14144,106 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>7.62</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>7.49</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>7.58</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>7.53</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>7.5</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>7.5</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>7.53</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>7.59</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>7.45</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>7.49</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>7.66</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>7.6</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>7.43</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>7.59</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>7.55</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>7.64</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>7.42</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="1">
         <v>7.53</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="1">
         <v>7.44</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="1">
         <v>7.57</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="1">
         <v>7.54</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="1">
         <v>7.57</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="1">
         <v>7.42</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="1">
         <v>7.55</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="1">
         <v>7.62</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="1">
         <v>7.54</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="1">
         <v>7.59</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="1">
         <v>7.59</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="1">
         <v>7.42</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="1">
         <v>7.6</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="1">
         <v>7.5383333329999997</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="1">
         <v>6.8268261999999996E-2</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="1">
         <v>7.62</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="1">
         <v>7.6</v>
       </c>
     </row>
@@ -13824,106 +14251,106 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>7.62</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>7.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>7.58</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>7.54</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>7.51</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>7.51</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>7.53</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>7.6</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="1">
         <v>7.46</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>7.5</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>7.66</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>7.61</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>7.44</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="1">
         <v>7.59</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="1">
         <v>7.55</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="1">
         <v>7.65</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="1">
         <v>7.43</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>7.53</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="1">
         <v>7.45</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="1">
         <v>7.58</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="1">
         <v>7.54</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="1">
         <v>7.58</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="1">
         <v>7.43</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="1">
         <v>7.55</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="1">
         <v>7.62</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="1">
         <v>7.54</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="1">
         <v>7.6</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="1">
         <v>7.59</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="1">
         <v>7.43</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="1">
         <v>7.6</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="1">
         <v>7.5439999999999996</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="1">
         <v>6.5959584000000002E-2</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="1">
         <v>7.62</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="1">
         <v>7.6</v>
       </c>
     </row>
@@ -13931,106 +14358,106 @@
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>7.64</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>7.51</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>7.6</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>7.56</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>7.52</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>7.52</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>7.55</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>7.61</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>7.47</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>7.52</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>7.68</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>7.62</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="1">
         <v>7.45</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="1">
         <v>7.61</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>7.56</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>7.67</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>7.45</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>7.55</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>7.46</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="1">
         <v>7.59</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="1">
         <v>7.56</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="1">
         <v>7.59</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="1">
         <v>7.44</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="1">
         <v>7.57</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="1">
         <v>7.64</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="1">
         <v>7.56</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="1">
         <v>7.61</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="1">
         <v>7.61</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="1">
         <v>7.45</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="1">
         <v>7.62</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="1">
         <v>7.5596666670000001</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="1">
         <v>6.7403429000000001E-2</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="1">
         <v>7.64</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="1">
         <v>7.62</v>
       </c>
     </row>
@@ -14038,106 +14465,106 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>7.64</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>7.52</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>7.6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>7.56</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>7.53</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>7.53</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>7.55</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>7.61</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>7.48</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>7.52</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>7.68</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>7.63</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>7.46</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>7.61</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>7.57</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>7.67</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>7.45</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>7.55</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>7.47</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>7.6</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="1">
         <v>7.56</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="1">
         <v>7.6</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="1">
         <v>7.44</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="1">
         <v>7.57</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="1">
         <v>7.64</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="1">
         <v>7.56</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="1">
         <v>7.62</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="1">
         <v>7.61</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="1">
         <v>7.45</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="1">
         <v>7.62</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="1">
         <v>7.5633333330000001</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="1">
         <v>6.6298986000000004E-2</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="1">
         <v>7.64</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="1">
         <v>7.62</v>
       </c>
     </row>
@@ -14148,6 +14575,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>